--- a/data/textcase02.xlsx
+++ b/data/textcase02.xlsx
@@ -101,7 +101,7 @@
     <t>200</t>
   </si>
   <si>
-    <t>0.033157</t>
+    <t>0.033007</t>
   </si>
   <si>
     <t>pass</t>
@@ -564,7 +564,10 @@
       <c r="J4" t="s">
         <v>29</v>
       </c>
-      <c r="L4" t="s"/>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
